--- a/app/Http/Python/excel/Friday.xlsx
+++ b/app/Http/Python/excel/Friday.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\araki\Documents\library_vue\app\Http\Python\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\araki\Documents\syllabus\app\Http\Python\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -91,9 +91,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>健康運動実習（児童のみ）</t>
-  </si>
-  <si>
     <t>岸一弘</t>
   </si>
   <si>
@@ -139,22 +136,6 @@
     <t>小野博史</t>
   </si>
   <si>
-    <t>基礎演習I（岸）</t>
-  </si>
-  <si>
-    <t>基礎演習I（後藤）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>基礎演習I（本多）</t>
-  </si>
-  <si>
-    <t>基礎演習I（佐藤高）</t>
-  </si>
-  <si>
-    <t>基礎演習I（平岡）</t>
-  </si>
-  <si>
     <t>後藤さゆり</t>
   </si>
   <si>
@@ -223,9 +204,6 @@
     <t>情報産業論「情報と職業」</t>
   </si>
   <si>
-    <t>日本語教育実習（事前事後指導含む。）</t>
-  </si>
-  <si>
     <t>高橋裕輔</t>
   </si>
   <si>
@@ -254,9 +232,6 @@
   </si>
   <si>
     <t>Spoken English IH</t>
-  </si>
-  <si>
-    <t>フランス語I（4年優先）</t>
   </si>
   <si>
     <t>心理学</t>
@@ -289,9 +264,6 @@
     <t>松下弓月</t>
   </si>
   <si>
-    <t>TOEIC Reading IB（英語のみ）</t>
-  </si>
-  <si>
     <t>心理学研究法I</t>
   </si>
   <si>
@@ -323,15 +295,6 @@
     <t>地域とこども</t>
   </si>
   <si>
-    <t>課題演習I（篠原）</t>
-  </si>
-  <si>
-    <t>課題演習I（奥田）</t>
-  </si>
-  <si>
-    <t>課題演習I（松本）</t>
-  </si>
-  <si>
     <t>奥田雄一郎</t>
   </si>
   <si>
@@ -344,9 +307,6 @@
     <t>Speaking of Japan IB3・B4</t>
   </si>
   <si>
-    <t>Basic Grammar I（英語のみ）</t>
-  </si>
-  <si>
     <t>スペイン語I</t>
   </si>
   <si>
@@ -365,9 +325,6 @@
     <t>総合英語IB4</t>
   </si>
   <si>
-    <t>TOEIC Reading IA（英語のみ）</t>
-  </si>
-  <si>
     <t>Academic Writing IB1</t>
   </si>
   <si>
@@ -378,9 +335,6 @@
   </si>
   <si>
     <t>情報演習・プログラミング</t>
-  </si>
-  <si>
-    <t>道徳の理論と指導法（初等）</t>
   </si>
   <si>
     <t>鈴木悠</t>
@@ -399,9 +353,6 @@
     <t>インターンシップ</t>
   </si>
   <si>
-    <t>課題演習I（野村）</t>
-  </si>
-  <si>
     <t>2301 3101</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -409,18 +360,6 @@
     <t>野村誠</t>
   </si>
   <si>
-    <t>卒業研究（後藤）</t>
-  </si>
-  <si>
-    <t>卒業研究（奥田）</t>
-  </si>
-  <si>
-    <t>卒業研究（篠原）</t>
-  </si>
-  <si>
-    <t>フランス語I（1年優先）</t>
-  </si>
-  <si>
     <t>アメリカの歴史と社会</t>
   </si>
   <si>
@@ -434,9 +373,6 @@
   </si>
   <si>
     <t>Honors Meeting III ※オナーズプログラム科目</t>
-  </si>
-  <si>
-    <t>教育実習事前事後指導（初等）</t>
   </si>
   <si>
     <t>村山賢哉</t>
@@ -456,9 +392,6 @@
   </si>
   <si>
     <t>Honors Meeting V ※オナーズプログラム科目</t>
-  </si>
-  <si>
-    <t>教育実習事前事後指導（中等）</t>
   </si>
   <si>
     <t>村山賢哉 西舘崇</t>
@@ -480,9 +413,6 @@
     <t>Spoken EnglishⅡD</t>
   </si>
   <si>
-    <t>教育と心理「教育心理学」（中等）</t>
-  </si>
-  <si>
     <t>情経オムニバス</t>
   </si>
   <si>
@@ -526,21 +456,6 @@
     <t>地域社会学</t>
   </si>
   <si>
-    <t>基礎演習II（岸）</t>
-  </si>
-  <si>
-    <t>基礎演習II（後藤）</t>
-  </si>
-  <si>
-    <t>基礎演習II（本多）</t>
-  </si>
-  <si>
-    <t>基礎演習II（佐藤高）</t>
-  </si>
-  <si>
-    <t>基礎演習II（平岡）</t>
-  </si>
-  <si>
     <t>群馬県</t>
   </si>
   <si>
@@ -589,9 +504,6 @@
   </si>
   <si>
     <t>Spoken English IIH</t>
-  </si>
-  <si>
-    <t>フランス語II（4年優先）</t>
   </si>
   <si>
     <t>倫理学概説</t>
@@ -619,31 +531,16 @@
     <t>Written English IIH</t>
   </si>
   <si>
-    <t>TOEIC Reading IIB（英語のみ）</t>
-  </si>
-  <si>
     <t>こどもと家族</t>
   </si>
   <si>
     <t>言葉と表現</t>
-  </si>
-  <si>
-    <t>教育相談論（中等）</t>
   </si>
   <si>
     <t>4202 4112</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>課題演習II（篠原）</t>
-  </si>
-  <si>
-    <t>課題演習II（奥田）</t>
-  </si>
-  <si>
-    <t>課題演習II（松本）</t>
-  </si>
-  <si>
     <t>篠原美登里</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -654,9 +551,6 @@
     <t>Speaking of Japan IIB3・B4 ※英語コース以外は3年次配当</t>
   </si>
   <si>
-    <t>Basic Grammar II（英語のみ）</t>
-  </si>
-  <si>
     <t>スペイン語II</t>
   </si>
   <si>
@@ -675,9 +569,6 @@
     <t>総合英語IIB4</t>
   </si>
   <si>
-    <t>TOEIC Reading IIA（英語のみ）</t>
-  </si>
-  <si>
     <t>Academic Writing IIB1</t>
   </si>
   <si>
@@ -690,9 +581,6 @@
     <t>情報システムとソフトウェア</t>
   </si>
   <si>
-    <t>道徳の理論と指導法（中等）</t>
-  </si>
-  <si>
     <t>英語Reading IVB1</t>
   </si>
   <si>
@@ -700,9 +588,6 @@
   </si>
   <si>
     <t>バドミントン実技</t>
-  </si>
-  <si>
-    <t>課題演習II（野村）</t>
   </si>
   <si>
     <t>岸一弘</t>
@@ -716,9 +601,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>フランス語II（1年優先）</t>
-  </si>
-  <si>
     <t>Honors Meeting II ※オナーズプログラム科目</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -741,6 +623,123 @@
   <si>
     <t>平岡さつき</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フランス語I(1年優先)</t>
+  </si>
+  <si>
+    <t>Basic Grammar I(英語のみ)</t>
+  </si>
+  <si>
+    <t>健康運動実習(児童のみ)</t>
+  </si>
+  <si>
+    <t>教育実習事前事後指導(初等)</t>
+  </si>
+  <si>
+    <t>基礎演習I(岸)</t>
+  </si>
+  <si>
+    <t>フランス語I(4年優先)</t>
+  </si>
+  <si>
+    <t>基礎演習I(後藤)</t>
+  </si>
+  <si>
+    <t>TOEIC Reading IA(英語のみ)</t>
+  </si>
+  <si>
+    <t>基礎演習I(本多)</t>
+  </si>
+  <si>
+    <t>基礎演習I(佐藤高)</t>
+  </si>
+  <si>
+    <t>教育実習事前事後指導(中等)</t>
+  </si>
+  <si>
+    <t>基礎演習I(平岡)</t>
+  </si>
+  <si>
+    <t>フランス語II(1年優先)</t>
+  </si>
+  <si>
+    <t>TOEIC Reading IB(英語のみ)</t>
+  </si>
+  <si>
+    <t>道徳の理論と指導法(初等)</t>
+  </si>
+  <si>
+    <t>課題演習I(野村)</t>
+  </si>
+  <si>
+    <t>課題演習I(篠原)</t>
+  </si>
+  <si>
+    <t>卒業研究(後藤)</t>
+  </si>
+  <si>
+    <t>課題演習I(奥田)</t>
+  </si>
+  <si>
+    <t>卒業研究(奥田)</t>
+  </si>
+  <si>
+    <t>課題演習I(松本)</t>
+  </si>
+  <si>
+    <t>卒業研究(篠原)</t>
+  </si>
+  <si>
+    <t>日本語教育実習(事前事後指導含む。)</t>
+  </si>
+  <si>
+    <t>Basic Grammar II(英語のみ)</t>
+  </si>
+  <si>
+    <t>フランス語II(4年優先)</t>
+  </si>
+  <si>
+    <t>TOEIC Reading IIA(英語のみ)</t>
+  </si>
+  <si>
+    <t>基礎演習II(岸)</t>
+  </si>
+  <si>
+    <t>基礎演習II(後藤)</t>
+  </si>
+  <si>
+    <t>基礎演習II(本多)</t>
+  </si>
+  <si>
+    <t>道徳の理論と指導法(中等)</t>
+  </si>
+  <si>
+    <t>基礎演習II(佐藤高)</t>
+  </si>
+  <si>
+    <t>TOEIC Reading IIB(英語のみ)</t>
+  </si>
+  <si>
+    <t>基礎演習II(平岡)</t>
+  </si>
+  <si>
+    <t>教育相談論(中等)</t>
+  </si>
+  <si>
+    <t>課題演習II(野村)</t>
+  </si>
+  <si>
+    <t>課題演習II(篠原)</t>
+  </si>
+  <si>
+    <t>課題演習II(奥田)</t>
+  </si>
+  <si>
+    <t>課題演習II(松本)</t>
+  </si>
+  <si>
+    <t>教育と心理「教育心理学」(中等)</t>
   </si>
 </sst>
 </file>
@@ -1125,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1156,10 +1155,10 @@
         <v>4201</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -1171,10 +1170,10 @@
         <v>1206</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="M1" t="s">
         <v>2</v>
@@ -1186,10 +1185,10 @@
         <v>1301</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="R1" t="s">
         <v>2</v>
@@ -1201,10 +1200,10 @@
         <v>4203</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="W1" t="s">
         <v>2</v>
@@ -1216,16 +1215,16 @@
         <v>1401</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AB1" t="s">
         <v>2</v>
       </c>
       <c r="AC1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AD1">
         <v>4204</v>
@@ -1248,10 +1247,10 @@
         <v>3101</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
         <v>2</v>
@@ -1263,10 +1262,10 @@
         <v>1302</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
         <v>2</v>
@@ -1278,10 +1277,10 @@
         <v>1303</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R2" t="s">
         <v>2</v>
@@ -1293,10 +1292,10 @@
         <v>1301</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="W2" t="s">
         <v>2</v>
@@ -1327,7 +1326,7 @@
         <v>4206</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
@@ -1342,7 +1341,7 @@
         <v>1311</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>7</v>
@@ -1357,10 +1356,10 @@
         <v>1203</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="R3" t="s">
         <v>2</v>
@@ -1372,10 +1371,10 @@
         <v>1311</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="W3" t="s">
         <v>2</v>
@@ -1404,7 +1403,7 @@
         <v>1301</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>1</v>
@@ -1419,10 +1418,10 @@
         <v>1313</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M4" t="s">
         <v>2</v>
@@ -1434,10 +1433,10 @@
         <v>1201</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="R4" t="s">
         <v>2</v>
@@ -1449,16 +1448,16 @@
         <v>2401</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="W4" t="s">
         <v>2</v>
       </c>
       <c r="X4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y4">
         <v>4206</v>
@@ -1481,7 +1480,7 @@
         <v>1311</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>7</v>
@@ -1496,10 +1495,10 @@
         <v>4206</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M5" t="s">
         <v>2</v>
@@ -1511,10 +1510,10 @@
         <v>1206</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="R5" t="s">
         <v>2</v>
@@ -1526,10 +1525,10 @@
         <v>1214</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="W5" t="s">
         <v>8</v>
@@ -1543,25 +1542,25 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="H6" t="s">
         <v>2</v>
@@ -1573,10 +1572,10 @@
         <v>1101</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="M6" t="s">
         <v>2</v>
@@ -1588,10 +1587,10 @@
         <v>4203</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R6" t="s">
         <v>2</v>
@@ -1603,16 +1602,16 @@
         <v>3301</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="W6" t="s">
         <v>8</v>
       </c>
       <c r="X6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y6">
         <v>1205</v>
@@ -1620,10 +1619,10 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F7" s="1" t="s">
-        <v>27</v>
+        <v>182</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
         <v>2</v>
@@ -1635,10 +1634,10 @@
         <v>2411</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>65</v>
+        <v>183</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="M7" t="s">
         <v>2</v>
@@ -1650,10 +1649,10 @@
         <v>1401</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="R7" t="s">
         <v>8</v>
@@ -1665,16 +1664,16 @@
         <v>4206</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="W7" t="s">
         <v>8</v>
       </c>
       <c r="X7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y7">
         <v>1101</v>
@@ -1682,10 +1681,10 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F8" s="1" t="s">
-        <v>28</v>
+        <v>184</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
         <v>2</v>
@@ -1697,10 +1696,10 @@
         <v>2412</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="M8" t="s">
         <v>2</v>
@@ -1712,10 +1711,10 @@
         <v>1101</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>99</v>
+        <v>185</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="R8" t="s">
         <v>8</v>
@@ -1727,10 +1726,10 @@
         <v>1302</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="W8" t="s">
         <v>13</v>
@@ -1744,10 +1743,10 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="H9" t="s">
         <v>2</v>
@@ -1759,10 +1758,10 @@
         <v>2413</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M9" t="s">
         <v>2</v>
@@ -1774,7 +1773,7 @@
         <v>2302</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>1</v>
@@ -1789,10 +1788,10 @@
         <v>2413</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="W9" t="s">
         <v>13</v>
@@ -1806,10 +1805,10 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F10" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="H10" t="s">
         <v>2</v>
@@ -1821,10 +1820,10 @@
         <v>4112</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="M10" t="s">
         <v>8</v>
@@ -1836,10 +1835,10 @@
         <v>1302</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="R10" t="s">
         <v>8</v>
@@ -1851,16 +1850,16 @@
         <v>1401</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="W10" t="s">
         <v>13</v>
       </c>
       <c r="X10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y10">
         <v>1101</v>
@@ -1868,10 +1867,10 @@
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F11" s="1" t="s">
-        <v>31</v>
+        <v>189</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="H11" t="s">
         <v>2</v>
@@ -1883,10 +1882,10 @@
         <v>4202</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M11" t="s">
         <v>8</v>
@@ -1898,10 +1897,10 @@
         <v>1311</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="R11" t="s">
         <v>8</v>
@@ -1913,16 +1912,16 @@
         <v>4204</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="W11" t="s">
         <v>2</v>
       </c>
       <c r="X11" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="Y11">
         <v>1401</v>
@@ -1930,10 +1929,10 @@
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="H12" t="s">
         <v>8</v>
@@ -1945,7 +1944,7 @@
         <v>1401</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>74</v>
+        <v>191</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>12</v>
@@ -1960,10 +1959,10 @@
         <v>4201</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="R12" t="s">
         <v>8</v>
@@ -1975,16 +1974,16 @@
         <v>1205</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="W12" t="s">
         <v>2</v>
       </c>
       <c r="X12" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="Y12">
         <v>1311</v>
@@ -1992,10 +1991,10 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="H13" t="s">
         <v>8</v>
@@ -2007,10 +2006,10 @@
         <v>1303</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="M13" t="s">
         <v>8</v>
@@ -2022,10 +2021,10 @@
         <v>1205</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="R13" t="s">
         <v>8</v>
@@ -2037,16 +2036,16 @@
         <v>2302</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="W13" t="s">
         <v>2</v>
       </c>
       <c r="X13" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="Y13">
         <v>4203</v>
@@ -2054,10 +2053,10 @@
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="H14" t="s">
         <v>8</v>
@@ -2069,10 +2068,10 @@
         <v>4201</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="M14" t="s">
         <v>8</v>
@@ -2084,10 +2083,10 @@
         <v>1214</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>104</v>
+        <v>192</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="R14" t="s">
         <v>8</v>
@@ -2096,19 +2095,19 @@
         <v>3</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="W14" t="s">
         <v>8</v>
       </c>
       <c r="X14" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="Y14">
         <v>4201</v>
@@ -2116,7 +2115,7 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F15" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>10</v>
@@ -2131,10 +2130,10 @@
         <v>1301</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M15" t="s">
         <v>8</v>
@@ -2143,13 +2142,13 @@
         <v>3</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="R15" t="s">
         <v>13</v>
@@ -2161,16 +2160,16 @@
         <v>1213</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="W15" t="s">
         <v>13</v>
       </c>
       <c r="X15" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="Y15">
         <v>1213</v>
@@ -2178,10 +2177,10 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F16" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H16" t="s">
         <v>8</v>
@@ -2193,25 +2192,25 @@
         <v>4203</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="M16" t="s">
         <v>8</v>
       </c>
       <c r="N16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O16">
         <v>2302</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="R16" t="s">
         <v>13</v>
@@ -2220,19 +2219,19 @@
         <v>3</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="W16" t="s">
         <v>13</v>
       </c>
       <c r="X16" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="Y16">
         <v>1313</v>
@@ -2240,10 +2239,10 @@
     </row>
     <row r="17" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F17" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s">
         <v>8</v>
@@ -2255,10 +2254,10 @@
         <v>1304</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="M17" t="s">
         <v>13</v>
@@ -2270,10 +2269,10 @@
         <v>4204</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>110</v>
+        <v>193</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="R17" t="s">
         <v>13</v>
@@ -2287,10 +2286,10 @@
     </row>
     <row r="18" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F18" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s">
         <v>13</v>
@@ -2302,10 +2301,10 @@
         <v>2401</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M18" t="s">
         <v>13</v>
@@ -2317,16 +2316,16 @@
         <v>1304</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>113</v>
+        <v>195</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="R18" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="S18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T18">
         <v>4111</v>
@@ -2334,10 +2333,10 @@
     </row>
     <row r="19" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F19" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
         <v>13</v>
@@ -2349,10 +2348,10 @@
         <v>1201</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>86</v>
+        <v>196</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="M19" t="s">
         <v>13</v>
@@ -2364,16 +2363,16 @@
         <v>4121</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>114</v>
+        <v>197</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="R19" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="S19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T19">
         <v>4121</v>
@@ -2381,7 +2380,7 @@
     </row>
     <row r="20" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F20" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>5</v>
@@ -2396,10 +2395,10 @@
         <v>1203</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>87</v>
+        <v>198</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="M20" t="s">
         <v>13</v>
@@ -2411,16 +2410,16 @@
         <v>4211</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>115</v>
+        <v>199</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="R20" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="S20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T20">
         <v>1304</v>
@@ -2428,28 +2427,28 @@
     </row>
     <row r="21" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F21" s="1" t="s">
-        <v>54</v>
+        <v>200</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H21" t="s">
         <v>13</v>
       </c>
       <c r="I21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J21">
         <v>1214</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M21" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N21" t="s">
         <v>3</v>
@@ -2458,16 +2457,16 @@
         <v>4206</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="R21" t="s">
         <v>2</v>
       </c>
       <c r="S21" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="T21">
         <v>4203</v>
@@ -2475,46 +2474,46 @@
     </row>
     <row r="22" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F22" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H22" t="s">
         <v>13</v>
       </c>
       <c r="I22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J22">
         <v>1213</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="M22" t="s">
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="O22">
         <v>1303</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R22" t="s">
         <v>2</v>
       </c>
       <c r="S22" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="T22">
         <v>1301</v>
@@ -2522,22 +2521,22 @@
     </row>
     <row r="23" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F23" s="1" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H23" t="s">
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="J23">
         <v>1206</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>10</v>
@@ -2546,22 +2545,22 @@
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="O23">
         <v>1301</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="R23" t="s">
         <v>2</v>
       </c>
       <c r="S23" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="T23">
         <v>1311</v>
@@ -2569,22 +2568,22 @@
     </row>
     <row r="24" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F24" s="1" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H24" t="s">
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="J24">
         <v>1302</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>7</v>
@@ -2593,22 +2592,22 @@
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="O24">
         <v>1203</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="R24" t="s">
         <v>2</v>
       </c>
       <c r="S24" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="T24">
         <v>1101</v>
@@ -2616,7 +2615,7 @@
     </row>
     <row r="25" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F25" s="1" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>12</v>
@@ -2625,37 +2624,37 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="J25">
         <v>1311</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M25" t="s">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="O25">
         <v>1201</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="R25" t="s">
         <v>2</v>
       </c>
       <c r="S25" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="T25">
         <v>1214</v>
@@ -2663,7 +2662,7 @@
     </row>
     <row r="26" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F26" s="1" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>1</v>
@@ -2672,37 +2671,37 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="J26">
         <v>1313</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M26" t="s">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="O26">
         <v>1206</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="R26" t="s">
         <v>2</v>
       </c>
       <c r="S26" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="T26">
         <v>4202</v>
@@ -2710,7 +2709,7 @@
     </row>
     <row r="27" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F27" s="1" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>7</v>
@@ -2719,37 +2718,37 @@
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="J27">
         <v>4206</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="M27" t="s">
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="O27">
         <v>4203</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="R27" t="s">
         <v>8</v>
       </c>
       <c r="S27" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="T27">
         <v>4206</v>
@@ -2757,46 +2756,46 @@
     </row>
     <row r="28" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F28" s="1" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="H28" t="s">
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="J28">
         <v>1101</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="M28" t="s">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="O28">
         <v>1401</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="R28" t="s">
         <v>8</v>
       </c>
       <c r="S28" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="T28">
         <v>1302</v>
@@ -2804,37 +2803,37 @@
     </row>
     <row r="29" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F29" s="1" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="H29" t="s">
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="J29">
         <v>2302</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="M29" t="s">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="O29">
         <v>1101</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>1</v>
@@ -2843,7 +2842,7 @@
         <v>8</v>
       </c>
       <c r="S29" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="T29">
         <v>2413</v>
@@ -2851,46 +2850,46 @@
     </row>
     <row r="30" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F30" s="1" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="H30" t="s">
         <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="J30">
         <v>3101</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="M30" t="s">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="O30">
         <v>2302</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="R30" t="s">
         <v>8</v>
       </c>
       <c r="S30" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="T30">
         <v>1401</v>
@@ -2898,46 +2897,46 @@
     </row>
     <row r="31" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F31" s="1" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="J31">
         <v>2411</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M31" t="s">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="R31" t="s">
         <v>8</v>
       </c>
       <c r="S31" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="T31">
         <v>4204</v>
@@ -2945,46 +2944,46 @@
     </row>
     <row r="32" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F32" s="1" t="s">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H32" t="s">
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="J32">
         <v>2412</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="M32" t="s">
         <v>8</v>
       </c>
       <c r="N32" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="O32">
         <v>1302</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="R32" t="s">
         <v>8</v>
       </c>
       <c r="S32" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="T32">
         <v>2302</v>
@@ -2992,69 +2991,69 @@
     </row>
     <row r="33" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F33" s="1" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H33" t="s">
         <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="J33">
         <v>2413</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M33" t="s">
         <v>8</v>
       </c>
       <c r="N33" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="O33">
         <v>1311</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="R33" t="s">
         <v>8</v>
       </c>
       <c r="S33" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="T33" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F34" s="1" t="s">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H34" t="s">
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="J34">
         <v>4112</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>12</v>
@@ -3063,22 +3062,22 @@
         <v>8</v>
       </c>
       <c r="N34" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="O34">
         <v>4201</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="R34" t="s">
         <v>13</v>
       </c>
       <c r="S34" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="T34">
         <v>1213</v>
@@ -3086,46 +3085,46 @@
     </row>
     <row r="35" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F35" s="1" t="s">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H35" t="s">
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="J35">
         <v>4202</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="M35" t="s">
         <v>8</v>
       </c>
       <c r="N35" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="O35">
         <v>4204</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="R35" t="s">
         <v>13</v>
       </c>
       <c r="S35" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="T35">
         <v>2401</v>
@@ -3133,93 +3132,93 @@
     </row>
     <row r="36" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F36" s="1" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H36" t="s">
         <v>8</v>
       </c>
       <c r="I36" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="J36">
         <v>1401</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M36" t="s">
         <v>8</v>
       </c>
       <c r="N36" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="O36" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="R36" t="s">
         <v>13</v>
       </c>
       <c r="S36" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="T36" s="4" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F37" s="1" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H37" t="s">
         <v>8</v>
       </c>
       <c r="I37" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="J37">
         <v>1303</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="M37" t="s">
         <v>8</v>
       </c>
       <c r="N37" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="O37">
         <v>1205</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="R37" t="s">
         <v>13</v>
       </c>
       <c r="S37" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="T37">
         <v>1313</v>
@@ -3227,31 +3226,31 @@
     </row>
     <row r="38" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F38" s="1" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H38" t="s">
         <v>8</v>
       </c>
       <c r="I38" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="J38">
         <v>4201</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="M38" t="s">
         <v>13</v>
       </c>
       <c r="N38" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="O38">
         <v>1304</v>
@@ -3259,7 +3258,7 @@
     </row>
     <row r="39" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F39" s="1" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>10</v>
@@ -3268,22 +3267,22 @@
         <v>8</v>
       </c>
       <c r="I39" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="J39">
         <v>1301</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="M39" t="s">
         <v>13</v>
       </c>
       <c r="N39" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="O39">
         <v>4121</v>
@@ -3291,31 +3290,31 @@
     </row>
     <row r="40" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F40" s="1" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H40" t="s">
         <v>8</v>
       </c>
       <c r="I40" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="J40">
         <v>4203</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="M40" t="s">
         <v>13</v>
       </c>
       <c r="N40" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="O40">
         <v>4211</v>
@@ -3323,31 +3322,31 @@
     </row>
     <row r="41" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F41" s="1" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H41" t="s">
         <v>8</v>
       </c>
       <c r="I41" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="J41">
         <v>1304</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M41" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N41" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="O41">
         <v>4206</v>
@@ -3355,7 +3354,7 @@
     </row>
     <row r="42" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F42" s="1" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>5</v>
@@ -3364,7 +3363,7 @@
         <v>8</v>
       </c>
       <c r="I42" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="J42">
         <v>2301</v>
@@ -3372,16 +3371,16 @@
     </row>
     <row r="43" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F43" s="1" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H43" t="s">
         <v>13</v>
       </c>
       <c r="I43" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="J43">
         <v>2401</v>
@@ -3471,7 +3470,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>1</v>
@@ -3480,7 +3479,7 @@
         <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="E81">
         <v>3101</v>
@@ -3488,16 +3487,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1" t="s">
-        <v>135</v>
+        <v>216</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C82" t="s">
         <v>2</v>
       </c>
       <c r="D82" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="E82">
         <v>1101</v>
@@ -3505,16 +3504,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="C83" t="s">
         <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="E83">
         <v>4204</v>
@@ -3522,7 +3521,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>7</v>
@@ -3531,7 +3530,7 @@
         <v>8</v>
       </c>
       <c r="D84" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="E84">
         <v>4206</v>
@@ -3539,7 +3538,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>10</v>
@@ -3548,7 +3547,7 @@
         <v>8</v>
       </c>
       <c r="D85" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="E85">
         <v>1301</v>
@@ -3556,16 +3555,16 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C86" t="s">
         <v>8</v>
       </c>
       <c r="D86" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="E86">
         <v>4203</v>
@@ -3573,7 +3572,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>12</v>
@@ -3582,7 +3581,7 @@
         <v>13</v>
       </c>
       <c r="D87" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="E87">
         <v>1311</v>

--- a/app/Http/Python/excel/Friday.xlsx
+++ b/app/Http/Python/excel/Friday.xlsx
@@ -366,15 +366,9 @@
     <t>小林俊哉</t>
   </si>
   <si>
-    <t>地域実践演習Ⅲ ※2回目の授業から5・6限で実施</t>
-  </si>
-  <si>
     <t>奥山龍一</t>
   </si>
   <si>
-    <t>Honors Meeting III ※オナーズプログラム科目</t>
-  </si>
-  <si>
     <t>村山賢哉</t>
   </si>
   <si>
@@ -391,16 +385,10 @@
     <t>英語Reading IIIB2</t>
   </si>
   <si>
-    <t>Honors Meeting V ※オナーズプログラム科目</t>
-  </si>
-  <si>
     <t>村山賢哉 西舘崇</t>
   </si>
   <si>
     <t>平岡さつき 奥田雄一郎 松本学 高橋健司 矢島宣弘 佐藤高司 三好賢治</t>
-  </si>
-  <si>
-    <t>インバウンド人材育成PRG ※2回目の授業から5・6限で実施</t>
   </si>
   <si>
     <t>後期</t>
@@ -601,22 +589,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Honors Meeting II ※オナーズプログラム科目</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>西舘崇</t>
   </si>
   <si>
-    <t>Honors Meeting IV ※オナーズプログラム科目</t>
-  </si>
-  <si>
     <t>英語Reading IVB2</t>
   </si>
   <si>
-    <t>Honors Meeting VI ※オナーズプログラム科目</t>
-  </si>
-  <si>
     <t>TOEIC Training IB3・B4</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -625,121 +603,152 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>フランス語I(1年優先)</t>
-  </si>
-  <si>
-    <t>Basic Grammar I(英語のみ)</t>
-  </si>
-  <si>
-    <t>健康運動実習(児童のみ)</t>
-  </si>
-  <si>
-    <t>教育実習事前事後指導(初等)</t>
-  </si>
-  <si>
-    <t>基礎演習I(岸)</t>
-  </si>
-  <si>
-    <t>フランス語I(4年優先)</t>
-  </si>
-  <si>
-    <t>基礎演習I(後藤)</t>
-  </si>
-  <si>
-    <t>TOEIC Reading IA(英語のみ)</t>
-  </si>
-  <si>
-    <t>基礎演習I(本多)</t>
-  </si>
-  <si>
-    <t>基礎演習I(佐藤高)</t>
-  </si>
-  <si>
-    <t>教育実習事前事後指導(中等)</t>
-  </si>
-  <si>
-    <t>基礎演習I(平岡)</t>
-  </si>
-  <si>
-    <t>フランス語II(1年優先)</t>
-  </si>
-  <si>
-    <t>TOEIC Reading IB(英語のみ)</t>
-  </si>
-  <si>
-    <t>道徳の理論と指導法(初等)</t>
-  </si>
-  <si>
-    <t>課題演習I(野村)</t>
-  </si>
-  <si>
-    <t>課題演習I(篠原)</t>
-  </si>
-  <si>
-    <t>卒業研究(後藤)</t>
-  </si>
-  <si>
-    <t>課題演習I(奥田)</t>
-  </si>
-  <si>
-    <t>卒業研究(奥田)</t>
-  </si>
-  <si>
-    <t>課題演習I(松本)</t>
-  </si>
-  <si>
-    <t>卒業研究(篠原)</t>
-  </si>
-  <si>
-    <t>日本語教育実習(事前事後指導含む。)</t>
-  </si>
-  <si>
-    <t>Basic Grammar II(英語のみ)</t>
-  </si>
-  <si>
-    <t>フランス語II(4年優先)</t>
-  </si>
-  <si>
-    <t>TOEIC Reading IIA(英語のみ)</t>
-  </si>
-  <si>
-    <t>基礎演習II(岸)</t>
-  </si>
-  <si>
-    <t>基礎演習II(後藤)</t>
-  </si>
-  <si>
-    <t>基礎演習II(本多)</t>
-  </si>
-  <si>
-    <t>道徳の理論と指導法(中等)</t>
-  </si>
-  <si>
-    <t>基礎演習II(佐藤高)</t>
-  </si>
-  <si>
-    <t>TOEIC Reading IIB(英語のみ)</t>
-  </si>
-  <si>
-    <t>基礎演習II(平岡)</t>
-  </si>
-  <si>
-    <t>教育相談論(中等)</t>
-  </si>
-  <si>
-    <t>課題演習II(野村)</t>
-  </si>
-  <si>
-    <t>課題演習II(篠原)</t>
-  </si>
-  <si>
-    <t>課題演習II(奥田)</t>
-  </si>
-  <si>
-    <t>課題演習II(松本)</t>
-  </si>
-  <si>
-    <t>教育と心理「教育心理学」(中等)</t>
+    <t>インバウンド人材育成PRG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>健康運動実習（児童のみ）</t>
+  </si>
+  <si>
+    <t>教育実習事前事後指導（初等）</t>
+  </si>
+  <si>
+    <t>基礎演習I（岸）</t>
+  </si>
+  <si>
+    <t>フランス語I（4年優先）</t>
+  </si>
+  <si>
+    <t>基礎演習I（後藤）</t>
+  </si>
+  <si>
+    <t>基礎演習I（本多）</t>
+  </si>
+  <si>
+    <t>基礎演習I（佐藤高）</t>
+  </si>
+  <si>
+    <t>教育実習事前事後指導（中等）</t>
+  </si>
+  <si>
+    <t>基礎演習I（平岡）</t>
+  </si>
+  <si>
+    <t>道徳の理論と指導法（初等）</t>
+  </si>
+  <si>
+    <t>課題演習I（野村）</t>
+  </si>
+  <si>
+    <t>課題演習I（篠原）</t>
+  </si>
+  <si>
+    <t>卒業研究（後藤）</t>
+  </si>
+  <si>
+    <t>課題演習I（奥田）</t>
+  </si>
+  <si>
+    <t>卒業研究（奥田）</t>
+  </si>
+  <si>
+    <t>課題演習I（松本）</t>
+  </si>
+  <si>
+    <t>卒業研究（篠原）</t>
+  </si>
+  <si>
+    <t>日本語教育実習（事前事後指導含む。）</t>
+  </si>
+  <si>
+    <t>フランス語II（4年優先）</t>
+  </si>
+  <si>
+    <t>基礎演習II（岸）</t>
+  </si>
+  <si>
+    <t>基礎演習II（後藤）</t>
+  </si>
+  <si>
+    <t>基礎演習II（本多）</t>
+  </si>
+  <si>
+    <t>道徳の理論と指導法（中等）</t>
+  </si>
+  <si>
+    <t>基礎演習II（佐藤高）</t>
+  </si>
+  <si>
+    <t>基礎演習II（平岡）</t>
+  </si>
+  <si>
+    <t>教育相談論（中等）</t>
+  </si>
+  <si>
+    <t>課題演習II（野村）</t>
+  </si>
+  <si>
+    <t>課題演習II（篠原）</t>
+  </si>
+  <si>
+    <t>課題演習II（奥田）</t>
+  </si>
+  <si>
+    <t>課題演習II（松本）</t>
+  </si>
+  <si>
+    <t>教育と心理「教育心理学」（中等）</t>
+  </si>
+  <si>
+    <t>Honors Meeting II</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Honors Meeting IV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Honors Meeting VI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フランス語II</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Honors Meeting V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Honors Meeting III</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地域実践演習Ⅲ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フランス語I</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Basic Grammar I</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TOEIC Reading IA</t>
+  </si>
+  <si>
+    <t>TOEIC Reading IB</t>
+  </si>
+  <si>
+    <t>Basic Grammar II</t>
+  </si>
+  <si>
+    <t>TOEIC Reading IIA</t>
+  </si>
+  <si>
+    <t>TOEIC Reading IIB</t>
   </si>
 </sst>
 </file>
@@ -1124,8 +1133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="K3" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1200,7 +1209,7 @@
         <v>4203</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>61</v>
@@ -1215,10 +1224,10 @@
         <v>1401</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AB1" t="s">
         <v>2</v>
@@ -1277,7 +1286,7 @@
         <v>1303</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>18</v>
@@ -1448,10 +1457,10 @@
         <v>2401</v>
       </c>
       <c r="U4" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="W4" t="s">
         <v>2</v>
@@ -1480,7 +1489,7 @@
         <v>1311</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>7</v>
@@ -1525,10 +1534,10 @@
         <v>1214</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>101</v>
+        <v>208</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="W5" t="s">
         <v>8</v>
@@ -1542,7 +1551,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>14</v>
@@ -1602,10 +1611,10 @@
         <v>3301</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="W6" t="s">
         <v>8</v>
@@ -1619,7 +1628,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F7" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>14</v>
@@ -1634,7 +1643,7 @@
         <v>2411</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>62</v>
@@ -1664,10 +1673,10 @@
         <v>4206</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="W7" t="s">
         <v>8</v>
@@ -1681,7 +1690,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F8" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>27</v>
@@ -1711,7 +1720,7 @@
         <v>1101</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>69</v>
@@ -1726,7 +1735,7 @@
         <v>1302</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="V8" s="1" t="s">
         <v>70</v>
@@ -1743,7 +1752,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F9" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>29</v>
@@ -1788,10 +1797,10 @@
         <v>2413</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>107</v>
+        <v>207</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="W9" t="s">
         <v>13</v>
@@ -1805,7 +1814,7 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F10" s="1" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>30</v>
@@ -1850,10 +1859,10 @@
         <v>1401</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="W10" t="s">
         <v>13</v>
@@ -1867,10 +1876,10 @@
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F11" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="H11" t="s">
         <v>2</v>
@@ -1912,7 +1921,7 @@
         <v>4204</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>62</v>
@@ -1921,7 +1930,7 @@
         <v>2</v>
       </c>
       <c r="X11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Y11">
         <v>1401</v>
@@ -1944,7 +1953,7 @@
         <v>1401</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>12</v>
@@ -1974,7 +1983,7 @@
         <v>1205</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>84</v>
@@ -1983,7 +1992,7 @@
         <v>2</v>
       </c>
       <c r="X12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Y12">
         <v>1311</v>
@@ -2036,16 +2045,16 @@
         <v>2302</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="W13" t="s">
         <v>2</v>
       </c>
       <c r="X13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Y13">
         <v>4203</v>
@@ -2083,7 +2092,7 @@
         <v>1214</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>31</v>
@@ -2098,16 +2107,16 @@
         <v>92</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="W14" t="s">
         <v>8</v>
       </c>
       <c r="X14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Y14">
         <v>4201</v>
@@ -2160,7 +2169,7 @@
         <v>1213</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>70</v>
@@ -2169,7 +2178,7 @@
         <v>13</v>
       </c>
       <c r="X15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Y15">
         <v>1213</v>
@@ -2222,16 +2231,16 @@
         <v>95</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="W16" t="s">
         <v>13</v>
       </c>
       <c r="X16" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Y16">
         <v>1313</v>
@@ -2269,7 +2278,7 @@
         <v>4204</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>96</v>
@@ -2301,7 +2310,7 @@
         <v>2401</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>42</v>
@@ -2316,7 +2325,7 @@
         <v>1304</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>26</v>
@@ -2348,7 +2357,7 @@
         <v>1201</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>76</v>
@@ -2363,7 +2372,7 @@
         <v>4121</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>76</v>
@@ -2395,7 +2404,7 @@
         <v>1203</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>77</v>
@@ -2410,7 +2419,7 @@
         <v>4211</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>42</v>
@@ -2427,7 +2436,7 @@
     </row>
     <row r="21" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F21" s="1" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>48</v>
@@ -2457,7 +2466,7 @@
         <v>4206</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>38</v>
@@ -2466,7 +2475,7 @@
         <v>2</v>
       </c>
       <c r="S21" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="T21">
         <v>4203</v>
@@ -2489,7 +2498,7 @@
         <v>1213</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>39</v>
@@ -2498,13 +2507,13 @@
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O22">
         <v>1303</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>18</v>
@@ -2513,7 +2522,7 @@
         <v>2</v>
       </c>
       <c r="S22" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="T22">
         <v>1301</v>
@@ -2521,7 +2530,7 @@
     </row>
     <row r="23" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F23" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>18</v>
@@ -2530,13 +2539,13 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J23">
         <v>1206</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>10</v>
@@ -2545,13 +2554,13 @@
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O23">
         <v>1301</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>84</v>
@@ -2560,7 +2569,7 @@
         <v>2</v>
       </c>
       <c r="S23" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="T23">
         <v>1311</v>
@@ -2568,7 +2577,7 @@
     </row>
     <row r="24" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F24" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>20</v>
@@ -2577,13 +2586,13 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J24">
         <v>1302</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>7</v>
@@ -2592,22 +2601,22 @@
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O24">
         <v>1203</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="R24" t="s">
         <v>2</v>
       </c>
       <c r="S24" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="T24">
         <v>1101</v>
@@ -2615,7 +2624,7 @@
     </row>
     <row r="25" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F25" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>12</v>
@@ -2624,13 +2633,13 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J25">
         <v>1311</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>20</v>
@@ -2639,13 +2648,13 @@
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O25">
         <v>1201</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>27</v>
@@ -2654,7 +2663,7 @@
         <v>2</v>
       </c>
       <c r="S25" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="T25">
         <v>1214</v>
@@ -2662,7 +2671,7 @@
     </row>
     <row r="26" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F26" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>1</v>
@@ -2671,13 +2680,13 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J26">
         <v>1313</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>18</v>
@@ -2686,13 +2695,13 @@
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O26">
         <v>1206</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>40</v>
@@ -2701,7 +2710,7 @@
         <v>2</v>
       </c>
       <c r="S26" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="T26">
         <v>4202</v>
@@ -2709,7 +2718,7 @@
     </row>
     <row r="27" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F27" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>7</v>
@@ -2718,13 +2727,13 @@
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J27">
         <v>4206</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>38</v>
@@ -2733,13 +2742,13 @@
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O27">
         <v>4203</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>41</v>
@@ -2748,7 +2757,7 @@
         <v>8</v>
       </c>
       <c r="S27" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="T27">
         <v>4206</v>
@@ -2756,22 +2765,22 @@
     </row>
     <row r="28" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F28" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H28" t="s">
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J28">
         <v>1101</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>61</v>
@@ -2780,13 +2789,13 @@
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O28">
         <v>1401</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>69</v>
@@ -2795,7 +2804,7 @@
         <v>8</v>
       </c>
       <c r="S28" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="T28">
         <v>1302</v>
@@ -2803,7 +2812,7 @@
     </row>
     <row r="29" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F29" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>91</v>
@@ -2812,28 +2821,28 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J29">
         <v>2302</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M29" t="s">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O29">
         <v>1101</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>1</v>
@@ -2842,7 +2851,7 @@
         <v>8</v>
       </c>
       <c r="S29" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="T29">
         <v>2413</v>
@@ -2850,22 +2859,22 @@
     </row>
     <row r="30" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F30" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H30" t="s">
         <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J30">
         <v>3101</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>74</v>
@@ -2874,13 +2883,13 @@
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O30">
         <v>2302</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>61</v>
@@ -2889,7 +2898,7 @@
         <v>8</v>
       </c>
       <c r="S30" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="T30">
         <v>1401</v>
@@ -2897,7 +2906,7 @@
     </row>
     <row r="31" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F31" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>14</v>
@@ -2906,13 +2915,13 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J31">
         <v>2411</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>28</v>
@@ -2921,13 +2930,13 @@
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>90</v>
@@ -2936,7 +2945,7 @@
         <v>8</v>
       </c>
       <c r="S31" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="T31">
         <v>4204</v>
@@ -2944,7 +2953,7 @@
     </row>
     <row r="32" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F32" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>26</v>
@@ -2953,13 +2962,13 @@
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J32">
         <v>2412</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>69</v>
@@ -2968,13 +2977,13 @@
         <v>8</v>
       </c>
       <c r="N32" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O32">
         <v>1302</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>91</v>
@@ -2983,7 +2992,7 @@
         <v>8</v>
       </c>
       <c r="S32" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="T32">
         <v>2302</v>
@@ -2991,7 +3000,7 @@
     </row>
     <row r="33" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F33" s="1" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>28</v>
@@ -3000,13 +3009,13 @@
         <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J33">
         <v>2413</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>70</v>
@@ -3015,13 +3024,13 @@
         <v>8</v>
       </c>
       <c r="N33" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O33">
         <v>1311</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>31</v>
@@ -3030,7 +3039,7 @@
         <v>8</v>
       </c>
       <c r="S33" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="T33" t="s">
         <v>92</v>
@@ -3038,7 +3047,7 @@
     </row>
     <row r="34" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F34" s="1" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>30</v>
@@ -3047,13 +3056,13 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J34">
         <v>4112</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>12</v>
@@ -3062,13 +3071,13 @@
         <v>8</v>
       </c>
       <c r="N34" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O34">
         <v>4201</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>70</v>
@@ -3077,7 +3086,7 @@
         <v>13</v>
       </c>
       <c r="S34" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="T34">
         <v>1213</v>
@@ -3085,7 +3094,7 @@
     </row>
     <row r="35" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F35" s="1" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>31</v>
@@ -3094,13 +3103,13 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J35">
         <v>4202</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>26</v>
@@ -3109,13 +3118,13 @@
         <v>8</v>
       </c>
       <c r="N35" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O35">
         <v>4204</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>44</v>
@@ -3124,7 +3133,7 @@
         <v>13</v>
       </c>
       <c r="S35" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="T35">
         <v>2401</v>
@@ -3132,7 +3141,7 @@
     </row>
     <row r="36" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F36" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>38</v>
@@ -3141,13 +3150,13 @@
         <v>8</v>
       </c>
       <c r="I36" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J36">
         <v>1401</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>30</v>
@@ -3156,30 +3165,30 @@
         <v>8</v>
       </c>
       <c r="N36" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O36" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="R36" t="s">
         <v>13</v>
       </c>
       <c r="S36" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="T36" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F37" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>39</v>
@@ -3188,13 +3197,13 @@
         <v>8</v>
       </c>
       <c r="I37" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J37">
         <v>1303</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>71</v>
@@ -3203,13 +3212,13 @@
         <v>8</v>
       </c>
       <c r="N37" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O37">
         <v>1205</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>96</v>
@@ -3218,7 +3227,7 @@
         <v>13</v>
       </c>
       <c r="S37" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="T37">
         <v>1313</v>
@@ -3226,7 +3235,7 @@
     </row>
     <row r="38" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F38" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>40</v>
@@ -3235,22 +3244,22 @@
         <v>8</v>
       </c>
       <c r="I38" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J38">
         <v>4201</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M38" t="s">
         <v>13</v>
       </c>
       <c r="N38" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O38">
         <v>1304</v>
@@ -3258,7 +3267,7 @@
     </row>
     <row r="39" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F39" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>10</v>
@@ -3267,13 +3276,13 @@
         <v>8</v>
       </c>
       <c r="I39" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J39">
         <v>1301</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>76</v>
@@ -3282,7 +3291,7 @@
         <v>13</v>
       </c>
       <c r="N39" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O39">
         <v>4121</v>
@@ -3290,7 +3299,7 @@
     </row>
     <row r="40" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F40" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>41</v>
@@ -3299,13 +3308,13 @@
         <v>8</v>
       </c>
       <c r="I40" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J40">
         <v>4203</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>77</v>
@@ -3314,7 +3323,7 @@
         <v>13</v>
       </c>
       <c r="N40" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O40">
         <v>4211</v>
@@ -3322,7 +3331,7 @@
     </row>
     <row r="41" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F41" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>42</v>
@@ -3331,13 +3340,13 @@
         <v>8</v>
       </c>
       <c r="I41" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J41">
         <v>1304</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>41</v>
@@ -3346,7 +3355,7 @@
         <v>60</v>
       </c>
       <c r="N41" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O41">
         <v>4206</v>
@@ -3354,7 +3363,7 @@
     </row>
     <row r="42" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F42" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>5</v>
@@ -3363,7 +3372,7 @@
         <v>8</v>
       </c>
       <c r="I42" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J42">
         <v>2301</v>
@@ -3371,7 +3380,7 @@
     </row>
     <row r="43" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F43" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>44</v>
@@ -3380,7 +3389,7 @@
         <v>13</v>
       </c>
       <c r="I43" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J43">
         <v>2401</v>
@@ -3470,7 +3479,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>1</v>
@@ -3479,7 +3488,7 @@
         <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E81">
         <v>3101</v>
@@ -3487,7 +3496,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>76</v>
@@ -3496,7 +3505,7 @@
         <v>2</v>
       </c>
       <c r="D82" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E82">
         <v>1101</v>
@@ -3504,16 +3513,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C83" t="s">
         <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E83">
         <v>4204</v>
@@ -3521,7 +3530,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>7</v>
@@ -3530,7 +3539,7 @@
         <v>8</v>
       </c>
       <c r="D84" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E84">
         <v>4206</v>
@@ -3538,7 +3547,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>10</v>
@@ -3547,7 +3556,7 @@
         <v>8</v>
       </c>
       <c r="D85" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E85">
         <v>1301</v>
@@ -3555,7 +3564,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>40</v>
@@ -3564,7 +3573,7 @@
         <v>8</v>
       </c>
       <c r="D86" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E86">
         <v>4203</v>
@@ -3572,7 +3581,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>12</v>
@@ -3581,7 +3590,7 @@
         <v>13</v>
       </c>
       <c r="D87" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E87">
         <v>1311</v>
